--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\boletimtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\~\my\git\data-to-excel-to-image\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -498,15 +498,18 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,9 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,7 +845,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -857,45 +857,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -911,12 +911,12 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
@@ -934,12 +934,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
@@ -957,12 +957,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
@@ -980,12 +980,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1003,12 +1003,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1026,12 +1026,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1049,12 +1049,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
@@ -1072,12 +1072,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="10"/>
@@ -1121,107 +1121,102 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="E18:I18"/>
@@ -1238,6 +1233,11 @@
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
